--- a/6_conferences_notebooks/Hebrew_Bible_Septuagint_Project/data/greek_verbs/εἰσάγω.xlsx
+++ b/6_conferences_notebooks/Hebrew_Bible_Septuagint_Project/data/greek_verbs/εἰσάγω.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,51 +493,100 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>43449_lxx</t>
+          <t>38602_lxx</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43449_mt</t>
+          <t>38602_mt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>καὶ εἰσάξεις τοὺς φορεῖς εἰς τοὺς δακτυλίους καὶ ἔστωσαν οἱ φορεῖς κατὰ τὰ πλευρὰ τοῦ θυσιαστηρίου ἐν τῷ αἴρειν αὐτό</t>
+          <t>ἐξῆλθε δὲ Μωυσῆς εἰς συνάντησιν τῷ γαμβρῷ καὶ προσεκύνησεν αὐτῷ καὶ ἐφίλησεν αὐτόν, καὶ ἠσπάσαντο ἀλλήλους · καὶ εἰσήγαγεν αὐτοὺς εἰς τὴν σκηνήν.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
+          <t>(18, 7)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>εἰς</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>W JY&gt; MCH L QR&gt;T XTNW W JCTXW W JCQ LW W JC&gt;LW &gt;JC L R&lt;HW L CLWM W JB&gt;W H &gt;HLH</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>H &gt;HLH</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>dir-he</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>inanim</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>43449_lxx</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>43449_mt</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>καὶ εἰσάξεις τοὺς φορεῖς εἰς τοὺς δακτυλίους καὶ ἔστωσαν οἱ φορεῖς κατὰ τὰ πλευρὰ τοῦ θυσιαστηρίου ἐν τῷ αἴρειν αὐτό</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>(27, 7)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>εἰς</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>W HWB&gt; &gt;T BDJW B VB&lt;T W HJW H BDJM &lt;L CTJ YL&lt;T H MZBX B F&gt;T &gt;TW</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>B VB&lt;T</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>prep</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>inanim</t>
         </is>
